--- a/biology/Zoologie/Anasimyia/Anasimyia.xlsx
+++ b/biology/Zoologie/Anasimyia/Anasimyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anasimyia est un genre d'insectes diptères, une mouche de la famille des Syrphidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anasimyia annulipes (Macquart, 1850)
 Anasimyia billinearis (Williston, 1887)
@@ -521,13 +535,13 @@
 Anasimyia distinctus (Williston, 1887)
 Anasimyia femorata Simic, 1987
 Anasimyia interpuncta (Harris, 1776)
-Anasimyia inundatus (Violovitsh, 1979)[1]
-Anasimyia japonica (Shiraki, 1930)[1]
+Anasimyia inundatus (Violovitsh, 1979)
+Anasimyia japonica (Shiraki, 1930)
 Anasimyia lineata (Fabricius, 1787)
 Anasimyia lunulata (Meigen, 1822)
 Anasimyia perfidiosus (Hunter, 1897)
-Anasimyia smirnovi (Stackelberg, 1924)[1]
-Anasimyia subtransfugus (Stackelberg, 1963)[1]
+Anasimyia smirnovi (Stackelberg, 1924)
+Anasimyia subtransfugus (Stackelberg, 1963)
 Anasimyia transfuga (Linnaeus, 1758)</t>
         </is>
       </c>
